--- a/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.323497959126867</v>
+        <v>-8.036337543486351</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.816842019900899</v>
+        <v>7.738910253919674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2507129970060045</v>
+        <v>0.2839318899452851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.09523159622105</v>
+        <v>7.004572813494443</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5493116304290734</v>
+        <v>-0.5686406215337347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5408333737327559</v>
+        <v>0.5273128811049559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.005396044158669472</v>
+        <v>-0.006982014656506434</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3750838303019451</v>
+        <v>0.4175696126515065</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.186816495219304</v>
+        <v>7.199432534828902</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.20811792366001</v>
+        <v>24.46982537954692</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.17155936839359</v>
+        <v>17.32789479903421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.4688475843672</v>
+        <v>18.97512689298219</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.024556146890897</v>
+        <v>0.9915127967985501</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.468417652376768</v>
+        <v>4.441635071570348</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.597784586529526</v>
+        <v>1.624475182751998</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.86497565964829</v>
+        <v>1.901059971159869</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1156015558831277</v>
+        <v>0.05077226342488782</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.353755396121248</v>
+        <v>2.639737683494807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.462933512062958</v>
+        <v>-2.478122466381667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.261565627384182</v>
+        <v>2.338702989058479</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05861977478767519</v>
+        <v>-0.0009044217250653223</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04886989215910303</v>
+        <v>0.07925240993726357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1014089800172211</v>
+        <v>-0.1732200046443644</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.09651815530685355</v>
+        <v>0.130600403243823</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.27906059541599</v>
+        <v>14.53008816818357</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.89836943215641</v>
+        <v>22.19986510603649</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.37202253650583</v>
+        <v>13.15086164806981</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.09917123094746</v>
+        <v>14.2003700798522</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.678359490226274</v>
+        <v>3.241009945081792</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.380134196200007</v>
+        <v>1.479849668950619</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.567989232013678</v>
+        <v>1.434182445227927</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.159060156213118</v>
+        <v>1.21287990257386</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>14.80839095998876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.928827940142732</v>
+        <v>9.928827940142728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.290410641980436</v>
@@ -849,7 +849,7 @@
         <v>1.369782378476154</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9099251335201846</v>
+        <v>0.9099251335201842</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.771472219036867</v>
+        <v>2.12982283720435</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.115668190944221</v>
+        <v>0.514956676862164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.509691871827905</v>
+        <v>4.971464734422546</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.226891275539556</v>
+        <v>3.280269779227807</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1090879185078918</v>
+        <v>0.08802101068281622</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02666432258183568</v>
+        <v>-0.02320942616388184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3319933388681323</v>
+        <v>0.2931538925072386</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2174137077371364</v>
+        <v>0.1508652036880158</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.31686775107188</v>
+        <v>15.24562200943446</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.68652847843545</v>
+        <v>23.56378055745517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24.66951701159309</v>
+        <v>24.08901354752548</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.22541963919111</v>
+        <v>16.28315071162311</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>11.88644393510856</v>
+        <v>11.74926849080184</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.767553192375985</v>
+        <v>2.84633266931939</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.514393834296872</v>
+        <v>3.64483852668652</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.078248558164685</v>
+        <v>2.108960923658642</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2293913451225493</v>
+        <v>-0.5272131509013723</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.862918598664486</v>
+        <v>-3.199655284855543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.131701099367039</v>
+        <v>4.32594535168596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.983197085042015</v>
+        <v>5.232433786943936</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0469621754132312</v>
+        <v>-0.1052858812586122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1585295559488674</v>
+        <v>-0.1766127430070565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2898319349250118</v>
+        <v>0.334338660632676</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3131989651180783</v>
+        <v>0.3110590903885606</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.99100727347705</v>
+        <v>12.52679637735765</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.09899727517554</v>
+        <v>12.72742365323782</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.43345261996084</v>
+        <v>19.0368461816777</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15.36221102640207</v>
+        <v>15.25543575097221</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.164050389288078</v>
+        <v>2.083238500242772</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.268674900187467</v>
+        <v>1.304090927493243</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.063981697039187</v>
+        <v>2.926661363868786</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.609007298284586</v>
+        <v>1.60263547538773</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.8298796500782175</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8200346214751915</v>
+        <v>0.8200346214751912</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.080230830872186</v>
+        <v>2.405450944953989</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.954187968634899</v>
+        <v>6.344564509170134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.525383723767781</v>
+        <v>5.364272651490042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.406327905298013</v>
+        <v>7.316515275150897</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2100832835441862</v>
+        <v>0.2342647159190188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3425977606057591</v>
+        <v>0.3576711453825235</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.409366970432433</v>
+        <v>0.3808277632172115</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.508820946020217</v>
+        <v>0.5055791330562723</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.245602558854916</v>
+        <v>9.31431996039338</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.49122306510231</v>
+        <v>15.80987948282639</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.10308705858781</v>
+        <v>13.80864907359301</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.10859190553509</v>
+        <v>13.41031368129005</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.503216588305722</v>
+        <v>1.431404834682538</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.246927626988994</v>
+        <v>1.314015663879516</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.412109966089</v>
+        <v>1.313169817896635</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.213923436664464</v>
+        <v>1.199940188956802</v>
       </c>
     </row>
     <row r="19">
